--- a/cea/databases/DE/assemblies/ENVELOPE.xlsx
+++ b/cea/databases/DE/assemblies/ENVELOPE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\GitHub\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E9ACDD-F507-40B2-A000-DB0AE20597A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F6EC83-EC5C-45DA-8046-570890B794FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1196">
   <si>
     <t>Description</t>
   </si>
@@ -3567,18 +3567,6 @@
     <t>Service_Life_roof</t>
   </si>
   <si>
-    <t>Light construction - new</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION_AS4</t>
-  </si>
-  <si>
-    <t>Medium construction -new</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION_AS5</t>
-  </si>
-  <si>
     <t>GWP_fossil_cons_kgCO2m2</t>
   </si>
   <si>
@@ -3625,15 +3613,26 @@
   </si>
   <si>
     <t>WINDOW_NoRet</t>
+  </si>
+  <si>
+    <t>Reference Service life</t>
+  </si>
+  <si>
+    <t>Reference Material Intensity</t>
+  </si>
+  <si>
+    <t>SIA, “SIA 2032 Graue Energie von Gebäuden,” no. 2010. Schweizerischer Ingenieur- und Architektenverein, Zürich, 2010.</t>
+  </si>
+  <si>
+    <t>Tracking Construction Material over Space and Time: Prospective and Geo-referenced Modeling of Building Stocks and Construction Material Flows; KBOB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -3964,7 +3963,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4122,10 +4121,6 @@
     <xf numFmtId="0" fontId="9" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4140,11 +4135,11 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="11" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4164,10 +4159,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4380,10 +4371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4393,7 +4384,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4403,17 +4394,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D1" s="63" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -4423,17 +4420,23 @@
       <c r="C2" s="3">
         <v>110000</v>
       </c>
-      <c r="D2" s="63">
-        <v>0</v>
-      </c>
-      <c r="E2" s="63">
-        <v>0</v>
-      </c>
-      <c r="F2" s="63">
+      <c r="D2" s="62">
+        <v>6.9</v>
+      </c>
+      <c r="E2" s="62">
+        <v>-65.5</v>
+      </c>
+      <c r="F2" s="61">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4443,17 +4446,23 @@
       <c r="C3" s="3">
         <v>165000</v>
       </c>
-      <c r="D3" s="63">
-        <v>0</v>
-      </c>
-      <c r="E3" s="63">
-        <v>0</v>
-      </c>
-      <c r="F3" s="63">
+      <c r="D3" s="62">
+        <v>82.9</v>
+      </c>
+      <c r="E3" s="62">
+        <v>0</v>
+      </c>
+      <c r="F3" s="61">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4463,15 +4472,17 @@
       <c r="C4" s="3">
         <v>300000</v>
       </c>
-      <c r="D4" s="63">
-        <v>0</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63">
+      <c r="D4" s="61">
+        <v>0</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4481,55 +4492,17 @@
       <c r="C5" s="3">
         <v>162000</v>
       </c>
-      <c r="D5" s="63">
-        <v>0</v>
-      </c>
-      <c r="E5" s="63">
-        <v>0</v>
-      </c>
-      <c r="F5" s="63">
+      <c r="D5" s="61">
+        <v>0</v>
+      </c>
+      <c r="E5" s="61">
+        <v>0</v>
+      </c>
+      <c r="F5" s="61">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="61" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C6" s="3">
-        <v>110000</v>
-      </c>
-      <c r="D6" s="62">
-        <v>6.9</v>
-      </c>
-      <c r="E6" s="62">
-        <v>-65.5</v>
-      </c>
-      <c r="F6" s="63">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C7" s="3">
-        <v>165000</v>
-      </c>
-      <c r="D7" s="62">
-        <v>82.9</v>
-      </c>
-      <c r="E7" s="64">
-        <v>0</v>
-      </c>
-      <c r="F7" s="63">
-        <v>60</v>
-      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4681,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197:I197"/>
+    <sheetView topLeftCell="A193" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4716,11 +4689,11 @@
       <c r="F1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="65" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>1184</v>
+      <c r="G1" s="63" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>1180</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1175</v>
@@ -10575,32 +10548,32 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A197" s="67" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B197" s="68" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C197" s="68">
+      <c r="A197" s="65" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B197" s="66" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C197" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="D197" s="66">
         <v>0.6</v>
       </c>
-      <c r="D197" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="E197" s="68">
+      <c r="E197" s="66">
         <v>0.94</v>
       </c>
-      <c r="F197" s="68">
+      <c r="F197" s="66">
         <f t="shared" ref="F197" si="6">1-D197</f>
         <v>0.4</v>
       </c>
-      <c r="G197" s="68">
-        <v>0</v>
-      </c>
-      <c r="H197" s="68">
-        <v>0</v>
-      </c>
-      <c r="I197" s="68">
+      <c r="G197" s="66">
+        <v>0</v>
+      </c>
+      <c r="H197" s="66">
+        <v>0</v>
+      </c>
+      <c r="I197" s="66">
         <v>60</v>
       </c>
     </row>
@@ -10614,8 +10587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200:I200"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200:F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10646,11 +10619,11 @@
       <c r="F1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="65" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>1188</v>
+      <c r="G1" s="63" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>1184</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1174</v>
@@ -16554,31 +16527,32 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A200" s="69" t="s">
+      <c r="A200" s="68" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B200" s="64" t="s">
         <v>1185</v>
       </c>
-      <c r="B200" s="66" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C200" s="68">
-        <v>3.2</v>
-      </c>
-      <c r="D200" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="E200" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="F200" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="G200" s="68">
-        <v>0</v>
-      </c>
-      <c r="H200" s="66">
-        <v>0</v>
-      </c>
-      <c r="I200" s="66">
+      <c r="C200" s="66">
+        <v>0.8</v>
+      </c>
+      <c r="D200" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="E200" s="66">
+        <v>0.84</v>
+      </c>
+      <c r="F200" s="66">
+        <f t="shared" ref="F200" si="9">1-D200</f>
+        <v>0.7</v>
+      </c>
+      <c r="G200" s="66">
+        <v>0</v>
+      </c>
+      <c r="H200" s="64">
+        <v>0</v>
+      </c>
+      <c r="I200" s="64">
         <v>60</v>
       </c>
     </row>
@@ -16592,8 +16566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I237"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237:F237"/>
+    <sheetView topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16617,11 +16591,11 @@
       <c r="C1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>1191</v>
+      <c r="D1" s="63" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>1187</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1173</v>
@@ -21340,22 +21314,22 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="67" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B237" s="68" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C237" s="68">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D237" s="68">
-        <v>0</v>
-      </c>
-      <c r="E237" s="68">
-        <v>0</v>
-      </c>
-      <c r="F237" s="68">
+      <c r="A237" s="65" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B237" s="66" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C237" s="66">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D237" s="66">
+        <v>0</v>
+      </c>
+      <c r="E237" s="66">
+        <v>0</v>
+      </c>
+      <c r="F237" s="66">
         <v>60</v>
       </c>
     </row>
@@ -21369,7 +21343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
@@ -21403,8 +21377,8 @@
       <c r="F1" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G1" s="65" t="s">
-        <v>1194</v>
+      <c r="G1" s="63" t="s">
+        <v>1190</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1172</v>
@@ -26611,28 +26585,28 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="67" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B202" s="68" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C202" s="68">
+      <c r="A202" s="65" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B202" s="66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C202" s="66">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D202" s="68">
+      <c r="D202" s="66">
         <v>0.2</v>
       </c>
-      <c r="E202" s="70">
+      <c r="E202" s="67">
         <v>0.89</v>
       </c>
-      <c r="F202" s="70">
+      <c r="F202" s="67">
         <v>0.2</v>
       </c>
-      <c r="G202" s="68">
-        <v>0</v>
-      </c>
-      <c r="H202" s="68">
+      <c r="G202" s="66">
+        <v>0</v>
+      </c>
+      <c r="H202" s="66">
         <v>60</v>
       </c>
     </row>

--- a/cea/databases/DE/assemblies/ENVELOPE.xlsx
+++ b/cea/databases/DE/assemblies/ENVELOPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\GitHub\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F6EC83-EC5C-45DA-8046-570890B794FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E435CD-355D-49CD-A2F2-DADBDB8CE20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSTRUCTION" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1190">
   <si>
     <t>Description</t>
   </si>
@@ -3567,64 +3567,46 @@
     <t>Service_Life_roof</t>
   </si>
   <si>
-    <t>GWP_fossil_cons_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_cons_kgCO2m2</t>
-  </si>
-  <si>
-    <t>Service_Life_cons</t>
-  </si>
-  <si>
-    <t>GWP_fossil_roof_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_roof_kgCO2m2</t>
-  </si>
-  <si>
     <t>NoRotrofit</t>
   </si>
   <si>
     <t>ROOF_NoRet</t>
   </si>
   <si>
-    <t>GWP_fossil_wall_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_wall_kgCO2m2</t>
-  </si>
-  <si>
     <t>WALL_NoRet</t>
   </si>
   <si>
-    <t>GWP_fossil_floor_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_floor_kgCO2m2</t>
-  </si>
-  <si>
     <t>No retrofit</t>
   </si>
   <si>
     <t>FLOOR_NoRet</t>
   </si>
   <si>
-    <t>GWP_win_kgCO2m2</t>
-  </si>
-  <si>
     <t>WINDOW_NoRet</t>
   </si>
   <si>
-    <t>Reference Service life</t>
-  </si>
-  <si>
-    <t>Reference Material Intensity</t>
-  </si>
-  <si>
-    <t>SIA, “SIA 2032 Graue Energie von Gebäuden,” no. 2010. Schweizerischer Ingenieur- und Architektenverein, Zürich, 2010.</t>
-  </si>
-  <si>
-    <t>Tracking Construction Material over Space and Time: Prospective and Geo-referenced Modeling of Building Stocks and Construction Material Flows; KBOB</t>
+    <t>GHG_roof_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_biogenic_roof_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_wall_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_biogenic_wall_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_floor_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_biogenic_floor_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_win_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_biogenic_win_kgCO2m2</t>
   </si>
 </sst>
 </file>
@@ -3963,7 +3945,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4121,8 +4103,6 @@
     <xf numFmtId="0" fontId="9" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4371,10 +4351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4384,7 +4364,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4394,23 +4374,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -4420,23 +4385,8 @@
       <c r="C2" s="3">
         <v>110000</v>
       </c>
-      <c r="D2" s="62">
-        <v>6.9</v>
-      </c>
-      <c r="E2" s="62">
-        <v>-65.5</v>
-      </c>
-      <c r="F2" s="61">
-        <v>60</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4446,23 +4396,8 @@
       <c r="C3" s="3">
         <v>165000</v>
       </c>
-      <c r="D3" s="62">
-        <v>82.9</v>
-      </c>
-      <c r="E3" s="62">
-        <v>0</v>
-      </c>
-      <c r="F3" s="61">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4472,17 +4407,8 @@
       <c r="C4" s="3">
         <v>300000</v>
       </c>
-      <c r="D4" s="61">
-        <v>0</v>
-      </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61">
-        <v>60</v>
-      </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4492,17 +4418,6 @@
       <c r="C5" s="3">
         <v>162000</v>
       </c>
-      <c r="D5" s="61">
-        <v>0</v>
-      </c>
-      <c r="E5" s="61">
-        <v>0</v>
-      </c>
-      <c r="F5" s="61">
-        <v>60</v>
-      </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4654,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4689,11 +4604,11 @@
       <c r="F1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>1180</v>
+      <c r="G1" s="61" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>1183</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1175</v>
@@ -10548,32 +10463,32 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A197" s="65" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B197" s="66" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C197" s="66">
+      <c r="A197" s="63" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B197" s="64" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C197" s="64">
         <v>0.2</v>
       </c>
-      <c r="D197" s="66">
+      <c r="D197" s="64">
         <v>0.6</v>
       </c>
-      <c r="E197" s="66">
+      <c r="E197" s="64">
         <v>0.94</v>
       </c>
-      <c r="F197" s="66">
+      <c r="F197" s="64">
         <f t="shared" ref="F197" si="6">1-D197</f>
         <v>0.4</v>
       </c>
-      <c r="G197" s="66">
-        <v>0</v>
-      </c>
-      <c r="H197" s="66">
-        <v>0</v>
-      </c>
-      <c r="I197" s="66">
+      <c r="G197" s="64">
+        <v>0</v>
+      </c>
+      <c r="H197" s="64">
+        <v>0</v>
+      </c>
+      <c r="I197" s="64">
         <v>60</v>
       </c>
     </row>
@@ -10587,8 +10502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200:F200"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10619,11 +10534,11 @@
       <c r="F1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="61" t="s">
         <v>1184</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>1185</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1174</v>
@@ -16527,32 +16442,32 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A200" s="68" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B200" s="64" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C200" s="66">
+      <c r="A200" s="66" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B200" s="62" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C200" s="64">
         <v>0.8</v>
       </c>
-      <c r="D200" s="66">
+      <c r="D200" s="64">
         <v>0.3</v>
       </c>
-      <c r="E200" s="66">
+      <c r="E200" s="64">
         <v>0.84</v>
       </c>
-      <c r="F200" s="66">
+      <c r="F200" s="64">
         <f t="shared" ref="F200" si="9">1-D200</f>
         <v>0.7</v>
       </c>
-      <c r="G200" s="66">
-        <v>0</v>
-      </c>
-      <c r="H200" s="64">
-        <v>0</v>
-      </c>
-      <c r="I200" s="64">
+      <c r="G200" s="64">
+        <v>0</v>
+      </c>
+      <c r="H200" s="62">
+        <v>0</v>
+      </c>
+      <c r="I200" s="62">
         <v>60</v>
       </c>
     </row>
@@ -16566,8 +16481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I237"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16591,10 +16506,10 @@
       <c r="C1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>1186</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>1187</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -21314,22 +21229,22 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="65" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B237" s="66" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C237" s="66">
+      <c r="A237" s="63" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B237" s="64" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C237" s="64">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D237" s="66">
-        <v>0</v>
-      </c>
-      <c r="E237" s="66">
-        <v>0</v>
-      </c>
-      <c r="F237" s="66">
+      <c r="D237" s="64">
+        <v>0</v>
+      </c>
+      <c r="E237" s="64">
+        <v>0</v>
+      </c>
+      <c r="F237" s="64">
         <v>60</v>
       </c>
     </row>
@@ -21341,10 +21256,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21355,10 +21270,11 @@
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21377,14 +21293,17 @@
       <c r="F1" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>687</v>
       </c>
@@ -21407,10 +21326,13 @@
         <v>47</v>
       </c>
       <c r="H2" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>689</v>
       </c>
@@ -21432,11 +21354,14 @@
       <c r="G3" s="29">
         <v>62</v>
       </c>
-      <c r="H3" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>691</v>
       </c>
@@ -21458,11 +21383,14 @@
       <c r="G4" s="31">
         <v>69</v>
       </c>
-      <c r="H4" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>693</v>
       </c>
@@ -21484,11 +21412,14 @@
       <c r="G5" s="33">
         <v>123</v>
       </c>
-      <c r="H5" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>695</v>
       </c>
@@ -21510,11 +21441,14 @@
       <c r="G6" s="25">
         <v>123</v>
       </c>
-      <c r="H6" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>697</v>
       </c>
@@ -21536,11 +21470,14 @@
       <c r="G7" s="34">
         <v>123</v>
       </c>
-      <c r="H7" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>699</v>
       </c>
@@ -21562,11 +21499,14 @@
       <c r="G8" s="25">
         <v>70</v>
       </c>
-      <c r="H8" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>701</v>
       </c>
@@ -21588,11 +21528,14 @@
       <c r="G9" s="25">
         <v>47</v>
       </c>
-      <c r="H9" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>703</v>
       </c>
@@ -21614,11 +21557,14 @@
       <c r="G10" s="25">
         <v>62</v>
       </c>
-      <c r="H10" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>705</v>
       </c>
@@ -21640,11 +21586,14 @@
       <c r="G11" s="25">
         <v>62</v>
       </c>
-      <c r="H11" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -21666,11 +21615,14 @@
       <c r="G12" s="29">
         <v>62</v>
       </c>
-      <c r="H12" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -21692,11 +21644,14 @@
       <c r="G13" s="29">
         <v>62</v>
       </c>
-      <c r="H13" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -21718,11 +21673,14 @@
       <c r="G14" s="29">
         <v>62</v>
       </c>
-      <c r="H14" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -21744,11 +21702,14 @@
       <c r="G15" s="29">
         <v>62</v>
       </c>
-      <c r="H15" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -21770,11 +21731,14 @@
       <c r="G16" s="29">
         <v>62</v>
       </c>
-      <c r="H16" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -21796,11 +21760,14 @@
       <c r="G17" s="29">
         <v>62</v>
       </c>
-      <c r="H17" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="29">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -21822,11 +21789,14 @@
       <c r="G18" s="29">
         <v>62</v>
       </c>
-      <c r="H18" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -21848,11 +21818,14 @@
       <c r="G19" s="29">
         <v>62</v>
       </c>
-      <c r="H19" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="29">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -21874,11 +21847,14 @@
       <c r="G20" s="33">
         <v>123</v>
       </c>
-      <c r="H20" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -21900,11 +21876,14 @@
       <c r="G21" s="33">
         <v>123</v>
       </c>
-      <c r="H21" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -21926,11 +21905,14 @@
       <c r="G22" s="33">
         <v>123</v>
       </c>
-      <c r="H22" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -21952,11 +21934,14 @@
       <c r="G23" s="34">
         <v>123</v>
       </c>
-      <c r="H23" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
@@ -21978,11 +21963,14 @@
       <c r="G24" s="29">
         <v>62</v>
       </c>
-      <c r="H24" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -22004,11 +21992,14 @@
       <c r="G25" s="29">
         <v>62</v>
       </c>
-      <c r="H25" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="29">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
@@ -22030,11 +22021,14 @@
       <c r="G26" s="29">
         <v>62</v>
       </c>
-      <c r="H26" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
@@ -22056,11 +22050,14 @@
       <c r="G27" s="29">
         <v>62</v>
       </c>
-      <c r="H27" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H27" s="29">
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -22082,11 +22079,14 @@
       <c r="G28" s="29">
         <v>62</v>
       </c>
-      <c r="H28" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -22108,11 +22108,14 @@
       <c r="G29" s="29">
         <v>62</v>
       </c>
-      <c r="H29" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H29" s="29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
@@ -22134,11 +22137,14 @@
       <c r="G30" s="29">
         <v>62</v>
       </c>
-      <c r="H30" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
@@ -22160,11 +22166,14 @@
       <c r="G31" s="29">
         <v>62</v>
       </c>
-      <c r="H31" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H31" s="29">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
@@ -22186,11 +22195,14 @@
       <c r="G32" s="33">
         <v>123</v>
       </c>
-      <c r="H32" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
@@ -22212,11 +22224,14 @@
       <c r="G33" s="33">
         <v>123</v>
       </c>
-      <c r="H33" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H33" s="29">
+        <v>0</v>
+      </c>
+      <c r="I33" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -22238,11 +22253,14 @@
       <c r="G34" s="33">
         <v>123</v>
       </c>
-      <c r="H34" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -22264,11 +22282,14 @@
       <c r="G35" s="34">
         <v>123</v>
       </c>
-      <c r="H35" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H35" s="29">
+        <v>0</v>
+      </c>
+      <c r="I35" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -22290,11 +22311,14 @@
       <c r="G36" s="29">
         <v>62</v>
       </c>
-      <c r="H36" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>88</v>
       </c>
@@ -22316,11 +22340,14 @@
       <c r="G37" s="29">
         <v>62</v>
       </c>
-      <c r="H37" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H37" s="29">
+        <v>0</v>
+      </c>
+      <c r="I37" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -22342,11 +22369,14 @@
       <c r="G38" s="29">
         <v>62</v>
       </c>
-      <c r="H38" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -22368,11 +22398,14 @@
       <c r="G39" s="29">
         <v>62</v>
       </c>
-      <c r="H39" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H39" s="29">
+        <v>0</v>
+      </c>
+      <c r="I39" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
@@ -22394,11 +22427,14 @@
       <c r="G40" s="29">
         <v>62</v>
       </c>
-      <c r="H40" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -22420,11 +22456,14 @@
       <c r="G41" s="29">
         <v>62</v>
       </c>
-      <c r="H41" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H41" s="29">
+        <v>0</v>
+      </c>
+      <c r="I41" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>98</v>
       </c>
@@ -22446,11 +22485,14 @@
       <c r="G42" s="29">
         <v>62</v>
       </c>
-      <c r="H42" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>100</v>
       </c>
@@ -22472,11 +22514,14 @@
       <c r="G43" s="33">
         <v>123</v>
       </c>
-      <c r="H43" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H43" s="29">
+        <v>0</v>
+      </c>
+      <c r="I43" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>102</v>
       </c>
@@ -22498,11 +22543,14 @@
       <c r="G44" s="33">
         <v>123</v>
       </c>
-      <c r="H44" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>104</v>
       </c>
@@ -22524,11 +22572,14 @@
       <c r="G45" s="33">
         <v>123</v>
       </c>
-      <c r="H45" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H45" s="29">
+        <v>0</v>
+      </c>
+      <c r="I45" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>106</v>
       </c>
@@ -22550,11 +22601,14 @@
       <c r="G46" s="34">
         <v>123</v>
       </c>
-      <c r="H46" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -22576,11 +22630,14 @@
       <c r="G47" s="29">
         <v>62</v>
       </c>
-      <c r="H47" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H47" s="29">
+        <v>0</v>
+      </c>
+      <c r="I47" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>110</v>
       </c>
@@ -22602,11 +22659,14 @@
       <c r="G48" s="29">
         <v>62</v>
       </c>
-      <c r="H48" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>112</v>
       </c>
@@ -22628,11 +22688,14 @@
       <c r="G49" s="29">
         <v>62</v>
       </c>
-      <c r="H49" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H49" s="29">
+        <v>0</v>
+      </c>
+      <c r="I49" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>114</v>
       </c>
@@ -22654,11 +22717,14 @@
       <c r="G50" s="29">
         <v>62</v>
       </c>
-      <c r="H50" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
@@ -22680,11 +22746,14 @@
       <c r="G51" s="29">
         <v>62</v>
       </c>
-      <c r="H51" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H51" s="29">
+        <v>0</v>
+      </c>
+      <c r="I51" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -22706,11 +22775,14 @@
       <c r="G52" s="29">
         <v>62</v>
       </c>
-      <c r="H52" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
+      <c r="I52" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>120</v>
       </c>
@@ -22732,11 +22804,14 @@
       <c r="G53" s="29">
         <v>62</v>
       </c>
-      <c r="H53" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H53" s="29">
+        <v>0</v>
+      </c>
+      <c r="I53" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>122</v>
       </c>
@@ -22758,11 +22833,14 @@
       <c r="G54" s="33">
         <v>123</v>
       </c>
-      <c r="H54" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>123</v>
       </c>
@@ -22784,11 +22862,14 @@
       <c r="G55" s="33">
         <v>123</v>
       </c>
-      <c r="H55" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H55" s="29">
+        <v>0</v>
+      </c>
+      <c r="I55" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -22810,11 +22891,14 @@
       <c r="G56" s="33">
         <v>123</v>
       </c>
-      <c r="H56" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>125</v>
       </c>
@@ -22836,11 +22920,14 @@
       <c r="G57" s="33">
         <v>123</v>
       </c>
-      <c r="H57" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H57" s="29">
+        <v>0</v>
+      </c>
+      <c r="I57" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>126</v>
       </c>
@@ -22862,11 +22949,14 @@
       <c r="G58" s="33">
         <v>123</v>
       </c>
-      <c r="H58" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
@@ -22888,11 +22978,14 @@
       <c r="G59" s="33">
         <v>123</v>
       </c>
-      <c r="H59" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H59" s="29">
+        <v>0</v>
+      </c>
+      <c r="I59" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
@@ -22914,11 +23007,14 @@
       <c r="G60" s="33">
         <v>123</v>
       </c>
-      <c r="H60" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -22940,11 +23036,14 @@
       <c r="G61" s="33">
         <v>123</v>
       </c>
-      <c r="H61" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H61" s="29">
+        <v>0</v>
+      </c>
+      <c r="I61" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
@@ -22966,11 +23065,14 @@
       <c r="G62" s="33">
         <v>123</v>
       </c>
-      <c r="H62" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H62" s="8">
+        <v>0</v>
+      </c>
+      <c r="I62" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
@@ -22992,11 +23094,14 @@
       <c r="G63" s="33">
         <v>123</v>
       </c>
-      <c r="H63" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H63" s="29">
+        <v>0</v>
+      </c>
+      <c r="I63" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
@@ -23018,11 +23123,14 @@
       <c r="G64" s="33">
         <v>123</v>
       </c>
-      <c r="H64" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>133</v>
       </c>
@@ -23044,11 +23152,14 @@
       <c r="G65" s="33">
         <v>123</v>
       </c>
-      <c r="H65" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H65" s="29">
+        <v>0</v>
+      </c>
+      <c r="I65" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>134</v>
       </c>
@@ -23070,11 +23181,14 @@
       <c r="G66" s="33">
         <v>123</v>
       </c>
-      <c r="H66" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H66" s="8">
+        <v>0</v>
+      </c>
+      <c r="I66" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -23096,11 +23210,14 @@
       <c r="G67" s="33">
         <v>123</v>
       </c>
-      <c r="H67" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H67" s="29">
+        <v>0</v>
+      </c>
+      <c r="I67" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>138</v>
       </c>
@@ -23122,11 +23239,14 @@
       <c r="G68" s="33">
         <v>123</v>
       </c>
-      <c r="H68" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H68" s="8">
+        <v>0</v>
+      </c>
+      <c r="I68" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -23148,11 +23268,14 @@
       <c r="G69" s="33">
         <v>123</v>
       </c>
-      <c r="H69" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H69" s="29">
+        <v>0</v>
+      </c>
+      <c r="I69" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -23174,11 +23297,14 @@
       <c r="G70" s="33">
         <v>123</v>
       </c>
-      <c r="H70" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="I70" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
@@ -23200,11 +23326,14 @@
       <c r="G71" s="33">
         <v>123</v>
       </c>
-      <c r="H71" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H71" s="29">
+        <v>0</v>
+      </c>
+      <c r="I71" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>146</v>
       </c>
@@ -23226,11 +23355,14 @@
       <c r="G72" s="33">
         <v>123</v>
       </c>
-      <c r="H72" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>148</v>
       </c>
@@ -23252,11 +23384,14 @@
       <c r="G73" s="33">
         <v>123</v>
       </c>
-      <c r="H73" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H73" s="29">
+        <v>0</v>
+      </c>
+      <c r="I73" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>150</v>
       </c>
@@ -23278,11 +23413,14 @@
       <c r="G74" s="33">
         <v>123</v>
       </c>
-      <c r="H74" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H74" s="8">
+        <v>0</v>
+      </c>
+      <c r="I74" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>152</v>
       </c>
@@ -23304,11 +23442,14 @@
       <c r="G75" s="33">
         <v>123</v>
       </c>
-      <c r="H75" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H75" s="29">
+        <v>0</v>
+      </c>
+      <c r="I75" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
@@ -23330,11 +23471,14 @@
       <c r="G76" s="33">
         <v>123</v>
       </c>
-      <c r="H76" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H76" s="8">
+        <v>0</v>
+      </c>
+      <c r="I76" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>156</v>
       </c>
@@ -23356,11 +23500,14 @@
       <c r="G77" s="33">
         <v>123</v>
       </c>
-      <c r="H77" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H77" s="29">
+        <v>0</v>
+      </c>
+      <c r="I77" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>158</v>
       </c>
@@ -23382,11 +23529,14 @@
       <c r="G78" s="33">
         <v>123</v>
       </c>
-      <c r="H78" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H78" s="8">
+        <v>0</v>
+      </c>
+      <c r="I78" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>160</v>
       </c>
@@ -23408,11 +23558,14 @@
       <c r="G79" s="33">
         <v>123</v>
       </c>
-      <c r="H79" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H79" s="29">
+        <v>0</v>
+      </c>
+      <c r="I79" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>162</v>
       </c>
@@ -23434,11 +23587,14 @@
       <c r="G80" s="33">
         <v>123</v>
       </c>
-      <c r="H80" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H80" s="8">
+        <v>0</v>
+      </c>
+      <c r="I80" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>164</v>
       </c>
@@ -23460,11 +23616,14 @@
       <c r="G81" s="33">
         <v>123</v>
       </c>
-      <c r="H81" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H81" s="29">
+        <v>0</v>
+      </c>
+      <c r="I81" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>166</v>
       </c>
@@ -23486,11 +23645,14 @@
       <c r="G82" s="33">
         <v>123</v>
       </c>
-      <c r="H82" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H82" s="8">
+        <v>0</v>
+      </c>
+      <c r="I82" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -23512,11 +23674,14 @@
       <c r="G83" s="33">
         <v>123</v>
       </c>
-      <c r="H83" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H83" s="29">
+        <v>0</v>
+      </c>
+      <c r="I83" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>170</v>
       </c>
@@ -23538,11 +23703,14 @@
       <c r="G84" s="33">
         <v>123</v>
       </c>
-      <c r="H84" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H84" s="8">
+        <v>0</v>
+      </c>
+      <c r="I84" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
@@ -23564,11 +23732,14 @@
       <c r="G85" s="33">
         <v>123</v>
       </c>
-      <c r="H85" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H85" s="29">
+        <v>0</v>
+      </c>
+      <c r="I85" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>174</v>
       </c>
@@ -23590,11 +23761,14 @@
       <c r="G86" s="33">
         <v>123</v>
       </c>
-      <c r="H86" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H86" s="8">
+        <v>0</v>
+      </c>
+      <c r="I86" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>176</v>
       </c>
@@ -23616,11 +23790,14 @@
       <c r="G87" s="33">
         <v>123</v>
       </c>
-      <c r="H87" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H87" s="29">
+        <v>0</v>
+      </c>
+      <c r="I87" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>178</v>
       </c>
@@ -23642,11 +23819,14 @@
       <c r="G88" s="33">
         <v>123</v>
       </c>
-      <c r="H88" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H88" s="8">
+        <v>0</v>
+      </c>
+      <c r="I88" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>180</v>
       </c>
@@ -23668,11 +23848,14 @@
       <c r="G89" s="33">
         <v>123</v>
       </c>
-      <c r="H89" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H89" s="29">
+        <v>0</v>
+      </c>
+      <c r="I89" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>182</v>
       </c>
@@ -23694,11 +23877,14 @@
       <c r="G90" s="33">
         <v>123</v>
       </c>
-      <c r="H90" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H90" s="8">
+        <v>0</v>
+      </c>
+      <c r="I90" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>184</v>
       </c>
@@ -23720,11 +23906,14 @@
       <c r="G91" s="33">
         <v>123</v>
       </c>
-      <c r="H91" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H91" s="29">
+        <v>0</v>
+      </c>
+      <c r="I91" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>186</v>
       </c>
@@ -23746,11 +23935,14 @@
       <c r="G92" s="33">
         <v>123</v>
       </c>
-      <c r="H92" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H92" s="8">
+        <v>0</v>
+      </c>
+      <c r="I92" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>188</v>
       </c>
@@ -23772,11 +23964,14 @@
       <c r="G93" s="33">
         <v>123</v>
       </c>
-      <c r="H93" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H93" s="29">
+        <v>0</v>
+      </c>
+      <c r="I93" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>190</v>
       </c>
@@ -23798,11 +23993,14 @@
       <c r="G94" s="33">
         <v>123</v>
       </c>
-      <c r="H94" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H94" s="8">
+        <v>0</v>
+      </c>
+      <c r="I94" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>192</v>
       </c>
@@ -23824,11 +24022,14 @@
       <c r="G95" s="33">
         <v>123</v>
       </c>
-      <c r="H95" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H95" s="29">
+        <v>0</v>
+      </c>
+      <c r="I95" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>194</v>
       </c>
@@ -23850,11 +24051,14 @@
       <c r="G96" s="34">
         <v>123</v>
       </c>
-      <c r="H96" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H96" s="8">
+        <v>0</v>
+      </c>
+      <c r="I96" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>195</v>
       </c>
@@ -23876,11 +24080,14 @@
       <c r="G97" s="34">
         <v>123</v>
       </c>
-      <c r="H97" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H97" s="29">
+        <v>0</v>
+      </c>
+      <c r="I97" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>196</v>
       </c>
@@ -23902,11 +24109,14 @@
       <c r="G98" s="34">
         <v>123</v>
       </c>
-      <c r="H98" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H98" s="8">
+        <v>0</v>
+      </c>
+      <c r="I98" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>197</v>
       </c>
@@ -23928,11 +24138,14 @@
       <c r="G99" s="34">
         <v>123</v>
       </c>
-      <c r="H99" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H99" s="29">
+        <v>0</v>
+      </c>
+      <c r="I99" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
@@ -23954,11 +24167,14 @@
       <c r="G100" s="34">
         <v>123</v>
       </c>
-      <c r="H100" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H100" s="8">
+        <v>0</v>
+      </c>
+      <c r="I100" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>199</v>
       </c>
@@ -23980,11 +24196,14 @@
       <c r="G101" s="34">
         <v>123</v>
       </c>
-      <c r="H101" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H101" s="29">
+        <v>0</v>
+      </c>
+      <c r="I101" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>200</v>
       </c>
@@ -24006,11 +24225,14 @@
       <c r="G102" s="34">
         <v>123</v>
       </c>
-      <c r="H102" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H102" s="8">
+        <v>0</v>
+      </c>
+      <c r="I102" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>201</v>
       </c>
@@ -24032,11 +24254,14 @@
       <c r="G103" s="34">
         <v>123</v>
       </c>
-      <c r="H103" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H103" s="29">
+        <v>0</v>
+      </c>
+      <c r="I103" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>202</v>
       </c>
@@ -24058,11 +24283,14 @@
       <c r="G104" s="34">
         <v>123</v>
       </c>
-      <c r="H104" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H104" s="8">
+        <v>0</v>
+      </c>
+      <c r="I104" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>203</v>
       </c>
@@ -24084,11 +24312,14 @@
       <c r="G105" s="34">
         <v>123</v>
       </c>
-      <c r="H105" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H105" s="29">
+        <v>0</v>
+      </c>
+      <c r="I105" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>204</v>
       </c>
@@ -24110,11 +24341,14 @@
       <c r="G106" s="34">
         <v>123</v>
       </c>
-      <c r="H106" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H106" s="8">
+        <v>0</v>
+      </c>
+      <c r="I106" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>205</v>
       </c>
@@ -24136,11 +24370,14 @@
       <c r="G107" s="34">
         <v>123</v>
       </c>
-      <c r="H107" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H107" s="29">
+        <v>0</v>
+      </c>
+      <c r="I107" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>206</v>
       </c>
@@ -24162,11 +24399,14 @@
       <c r="G108" s="34">
         <v>123</v>
       </c>
-      <c r="H108" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H108" s="8">
+        <v>0</v>
+      </c>
+      <c r="I108" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>208</v>
       </c>
@@ -24188,11 +24428,14 @@
       <c r="G109" s="34">
         <v>123</v>
       </c>
-      <c r="H109" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H109" s="29">
+        <v>0</v>
+      </c>
+      <c r="I109" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>210</v>
       </c>
@@ -24214,11 +24457,14 @@
       <c r="G110" s="34">
         <v>123</v>
       </c>
-      <c r="H110" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H110" s="8">
+        <v>0</v>
+      </c>
+      <c r="I110" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>212</v>
       </c>
@@ -24240,11 +24486,14 @@
       <c r="G111" s="34">
         <v>123</v>
       </c>
-      <c r="H111" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H111" s="29">
+        <v>0</v>
+      </c>
+      <c r="I111" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>214</v>
       </c>
@@ -24266,11 +24515,14 @@
       <c r="G112" s="34">
         <v>123</v>
       </c>
-      <c r="H112" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H112" s="8">
+        <v>0</v>
+      </c>
+      <c r="I112" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>216</v>
       </c>
@@ -24292,11 +24544,14 @@
       <c r="G113" s="34">
         <v>123</v>
       </c>
-      <c r="H113" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H113" s="29">
+        <v>0</v>
+      </c>
+      <c r="I113" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>218</v>
       </c>
@@ -24318,11 +24573,14 @@
       <c r="G114" s="34">
         <v>123</v>
       </c>
-      <c r="H114" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H114" s="8">
+        <v>0</v>
+      </c>
+      <c r="I114" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>220</v>
       </c>
@@ -24344,11 +24602,14 @@
       <c r="G115" s="34">
         <v>123</v>
       </c>
-      <c r="H115" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H115" s="29">
+        <v>0</v>
+      </c>
+      <c r="I115" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>222</v>
       </c>
@@ -24370,11 +24631,14 @@
       <c r="G116" s="34">
         <v>123</v>
       </c>
-      <c r="H116" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H116" s="8">
+        <v>0</v>
+      </c>
+      <c r="I116" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>224</v>
       </c>
@@ -24396,11 +24660,14 @@
       <c r="G117" s="34">
         <v>123</v>
       </c>
-      <c r="H117" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H117" s="29">
+        <v>0</v>
+      </c>
+      <c r="I117" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>226</v>
       </c>
@@ -24422,11 +24689,14 @@
       <c r="G118" s="34">
         <v>123</v>
       </c>
-      <c r="H118" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H118" s="8">
+        <v>0</v>
+      </c>
+      <c r="I118" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>228</v>
       </c>
@@ -24448,11 +24718,14 @@
       <c r="G119" s="34">
         <v>123</v>
       </c>
-      <c r="H119" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H119" s="29">
+        <v>0</v>
+      </c>
+      <c r="I119" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>230</v>
       </c>
@@ -24474,11 +24747,14 @@
       <c r="G120" s="34">
         <v>123</v>
       </c>
-      <c r="H120" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H120" s="8">
+        <v>0</v>
+      </c>
+      <c r="I120" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>232</v>
       </c>
@@ -24500,11 +24776,14 @@
       <c r="G121" s="34">
         <v>123</v>
       </c>
-      <c r="H121" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H121" s="29">
+        <v>0</v>
+      </c>
+      <c r="I121" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>234</v>
       </c>
@@ -24526,11 +24805,14 @@
       <c r="G122" s="34">
         <v>123</v>
       </c>
-      <c r="H122" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H122" s="8">
+        <v>0</v>
+      </c>
+      <c r="I122" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>236</v>
       </c>
@@ -24552,11 +24834,14 @@
       <c r="G123" s="34">
         <v>123</v>
       </c>
-      <c r="H123" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H123" s="29">
+        <v>0</v>
+      </c>
+      <c r="I123" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>238</v>
       </c>
@@ -24578,11 +24863,14 @@
       <c r="G124" s="34">
         <v>123</v>
       </c>
-      <c r="H124" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H124" s="8">
+        <v>0</v>
+      </c>
+      <c r="I124" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>240</v>
       </c>
@@ -24604,11 +24892,14 @@
       <c r="G125" s="34">
         <v>123</v>
       </c>
-      <c r="H125" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H125" s="29">
+        <v>0</v>
+      </c>
+      <c r="I125" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>242</v>
       </c>
@@ -24630,11 +24921,14 @@
       <c r="G126" s="34">
         <v>123</v>
       </c>
-      <c r="H126" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H126" s="8">
+        <v>0</v>
+      </c>
+      <c r="I126" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>244</v>
       </c>
@@ -24656,11 +24950,14 @@
       <c r="G127" s="34">
         <v>123</v>
       </c>
-      <c r="H127" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H127" s="29">
+        <v>0</v>
+      </c>
+      <c r="I127" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>246</v>
       </c>
@@ -24682,11 +24979,14 @@
       <c r="G128" s="34">
         <v>123</v>
       </c>
-      <c r="H128" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H128" s="8">
+        <v>0</v>
+      </c>
+      <c r="I128" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>248</v>
       </c>
@@ -24708,11 +25008,14 @@
       <c r="G129" s="34">
         <v>123</v>
       </c>
-      <c r="H129" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H129" s="29">
+        <v>0</v>
+      </c>
+      <c r="I129" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>250</v>
       </c>
@@ -24734,11 +25037,14 @@
       <c r="G130" s="34">
         <v>123</v>
       </c>
-      <c r="H130" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H130" s="8">
+        <v>0</v>
+      </c>
+      <c r="I130" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>252</v>
       </c>
@@ -24760,11 +25066,14 @@
       <c r="G131" s="34">
         <v>123</v>
       </c>
-      <c r="H131" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H131" s="29">
+        <v>0</v>
+      </c>
+      <c r="I131" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>254</v>
       </c>
@@ -24786,11 +25095,14 @@
       <c r="G132" s="34">
         <v>123</v>
       </c>
-      <c r="H132" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H132" s="8">
+        <v>0</v>
+      </c>
+      <c r="I132" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>256</v>
       </c>
@@ -24812,11 +25124,14 @@
       <c r="G133" s="34">
         <v>123</v>
       </c>
-      <c r="H133" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H133" s="29">
+        <v>0</v>
+      </c>
+      <c r="I133" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>258</v>
       </c>
@@ -24838,11 +25153,14 @@
       <c r="G134" s="34">
         <v>123</v>
       </c>
-      <c r="H134" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H134" s="8">
+        <v>0</v>
+      </c>
+      <c r="I134" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>260</v>
       </c>
@@ -24864,11 +25182,14 @@
       <c r="G135" s="34">
         <v>123</v>
       </c>
-      <c r="H135" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H135" s="29">
+        <v>0</v>
+      </c>
+      <c r="I135" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>262</v>
       </c>
@@ -24890,11 +25211,14 @@
       <c r="G136" s="34">
         <v>123</v>
       </c>
-      <c r="H136" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H136" s="8">
+        <v>0</v>
+      </c>
+      <c r="I136" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>264</v>
       </c>
@@ -24916,11 +25240,14 @@
       <c r="G137" s="34">
         <v>123</v>
       </c>
-      <c r="H137" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H137" s="29">
+        <v>0</v>
+      </c>
+      <c r="I137" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>1088</v>
       </c>
@@ -24942,11 +25269,14 @@
       <c r="G138" s="29">
         <v>62</v>
       </c>
-      <c r="H138" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H138" s="8">
+        <v>0</v>
+      </c>
+      <c r="I138" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>1089</v>
       </c>
@@ -24968,11 +25298,14 @@
       <c r="G139" s="29">
         <v>62</v>
       </c>
-      <c r="H139" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H139" s="29">
+        <v>0</v>
+      </c>
+      <c r="I139" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>1090</v>
       </c>
@@ -24994,11 +25327,14 @@
       <c r="G140" s="29">
         <v>62</v>
       </c>
-      <c r="H140" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H140" s="8">
+        <v>0</v>
+      </c>
+      <c r="I140" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>1091</v>
       </c>
@@ -25020,11 +25356,14 @@
       <c r="G141" s="29">
         <v>62</v>
       </c>
-      <c r="H141" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H141" s="29">
+        <v>0</v>
+      </c>
+      <c r="I141" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>1092</v>
       </c>
@@ -25046,11 +25385,14 @@
       <c r="G142" s="29">
         <v>62</v>
       </c>
-      <c r="H142" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H142" s="8">
+        <v>0</v>
+      </c>
+      <c r="I142" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>1093</v>
       </c>
@@ -25072,11 +25414,14 @@
       <c r="G143" s="29">
         <v>62</v>
       </c>
-      <c r="H143" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H143" s="29">
+        <v>0</v>
+      </c>
+      <c r="I143" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>1094</v>
       </c>
@@ -25098,11 +25443,14 @@
       <c r="G144" s="29">
         <v>62</v>
       </c>
-      <c r="H144" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H144" s="8">
+        <v>0</v>
+      </c>
+      <c r="I144" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>1095</v>
       </c>
@@ -25124,11 +25472,14 @@
       <c r="G145" s="33">
         <v>123</v>
       </c>
-      <c r="H145" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H145" s="29">
+        <v>0</v>
+      </c>
+      <c r="I145" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>1096</v>
       </c>
@@ -25150,11 +25501,14 @@
       <c r="G146" s="33">
         <v>123</v>
       </c>
-      <c r="H146" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H146" s="8">
+        <v>0</v>
+      </c>
+      <c r="I146" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>1097</v>
       </c>
@@ -25176,11 +25530,14 @@
       <c r="G147" s="33">
         <v>123</v>
       </c>
-      <c r="H147" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H147" s="29">
+        <v>0</v>
+      </c>
+      <c r="I147" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>1098</v>
       </c>
@@ -25202,11 +25559,14 @@
       <c r="G148" s="33">
         <v>123</v>
       </c>
-      <c r="H148" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H148" s="8">
+        <v>0</v>
+      </c>
+      <c r="I148" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>1099</v>
       </c>
@@ -25228,11 +25588,14 @@
       <c r="G149" s="33">
         <v>123</v>
       </c>
-      <c r="H149" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H149" s="29">
+        <v>0</v>
+      </c>
+      <c r="I149" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>1100</v>
       </c>
@@ -25254,11 +25617,14 @@
       <c r="G150" s="33">
         <v>123</v>
       </c>
-      <c r="H150" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H150" s="8">
+        <v>0</v>
+      </c>
+      <c r="I150" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>1101</v>
       </c>
@@ -25280,11 +25646,14 @@
       <c r="G151" s="33">
         <v>123</v>
       </c>
-      <c r="H151" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H151" s="29">
+        <v>0</v>
+      </c>
+      <c r="I151" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>1102</v>
       </c>
@@ -25306,11 +25675,14 @@
       <c r="G152" s="34">
         <v>123</v>
       </c>
-      <c r="H152" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H152" s="8">
+        <v>0</v>
+      </c>
+      <c r="I152" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>1103</v>
       </c>
@@ -25332,11 +25704,14 @@
       <c r="G153" s="34">
         <v>123</v>
       </c>
-      <c r="H153" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H153" s="29">
+        <v>0</v>
+      </c>
+      <c r="I153" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>1104</v>
       </c>
@@ -25358,11 +25733,14 @@
       <c r="G154" s="34">
         <v>123</v>
       </c>
-      <c r="H154" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H154" s="8">
+        <v>0</v>
+      </c>
+      <c r="I154" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>1105</v>
       </c>
@@ -25384,11 +25762,14 @@
       <c r="G155" s="34">
         <v>123</v>
       </c>
-      <c r="H155" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H155" s="29">
+        <v>0</v>
+      </c>
+      <c r="I155" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>1106</v>
       </c>
@@ -25410,11 +25791,14 @@
       <c r="G156" s="34">
         <v>123</v>
       </c>
-      <c r="H156" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H156" s="8">
+        <v>0</v>
+      </c>
+      <c r="I156" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>1107</v>
       </c>
@@ -25436,11 +25820,14 @@
       <c r="G157" s="34">
         <v>123</v>
       </c>
-      <c r="H157" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H157" s="29">
+        <v>0</v>
+      </c>
+      <c r="I157" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>1108</v>
       </c>
@@ -25462,11 +25849,14 @@
       <c r="G158" s="34">
         <v>123</v>
       </c>
-      <c r="H158" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H158" s="8">
+        <v>0</v>
+      </c>
+      <c r="I158" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>708</v>
       </c>
@@ -25488,11 +25878,14 @@
       <c r="G159" s="21">
         <v>66</v>
       </c>
-      <c r="H159" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H159" s="29">
+        <v>0</v>
+      </c>
+      <c r="I159" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>709</v>
       </c>
@@ -25514,11 +25907,14 @@
       <c r="G160" s="21">
         <v>66</v>
       </c>
-      <c r="H160" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H160" s="8">
+        <v>0</v>
+      </c>
+      <c r="I160" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>710</v>
       </c>
@@ -25540,11 +25936,14 @@
       <c r="G161" s="21">
         <v>66</v>
       </c>
-      <c r="H161" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H161" s="29">
+        <v>0</v>
+      </c>
+      <c r="I161" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>711</v>
       </c>
@@ -25566,11 +25965,14 @@
       <c r="G162" s="21">
         <v>66</v>
       </c>
-      <c r="H162" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H162" s="8">
+        <v>0</v>
+      </c>
+      <c r="I162" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>266</v>
       </c>
@@ -25592,11 +25994,14 @@
       <c r="G163" s="29">
         <v>62</v>
       </c>
-      <c r="H163" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H163" s="29">
+        <v>0</v>
+      </c>
+      <c r="I163" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>268</v>
       </c>
@@ -25618,11 +26023,14 @@
       <c r="G164" s="29">
         <v>62</v>
       </c>
-      <c r="H164" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H164" s="8">
+        <v>0</v>
+      </c>
+      <c r="I164" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>270</v>
       </c>
@@ -25644,11 +26052,14 @@
       <c r="G165" s="33">
         <v>123</v>
       </c>
-      <c r="H165" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H165" s="29">
+        <v>0</v>
+      </c>
+      <c r="I165" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>272</v>
       </c>
@@ -25670,11 +26081,14 @@
       <c r="G166" s="29">
         <v>62</v>
       </c>
-      <c r="H166" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H166" s="8">
+        <v>0</v>
+      </c>
+      <c r="I166" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>274</v>
       </c>
@@ -25696,11 +26110,14 @@
       <c r="G167" s="29">
         <v>62</v>
       </c>
-      <c r="H167" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H167" s="29">
+        <v>0</v>
+      </c>
+      <c r="I167" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>276</v>
       </c>
@@ -25722,11 +26139,14 @@
       <c r="G168" s="33">
         <v>123</v>
       </c>
-      <c r="H168" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H168" s="8">
+        <v>0</v>
+      </c>
+      <c r="I168" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>278</v>
       </c>
@@ -25748,11 +26168,14 @@
       <c r="G169" s="29">
         <v>62</v>
       </c>
-      <c r="H169" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H169" s="29">
+        <v>0</v>
+      </c>
+      <c r="I169" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>280</v>
       </c>
@@ -25774,11 +26197,14 @@
       <c r="G170" s="29">
         <v>62</v>
       </c>
-      <c r="H170" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H170" s="8">
+        <v>0</v>
+      </c>
+      <c r="I170" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>282</v>
       </c>
@@ -25800,11 +26226,14 @@
       <c r="G171" s="33">
         <v>123</v>
       </c>
-      <c r="H171" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H171" s="29">
+        <v>0</v>
+      </c>
+      <c r="I171" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>284</v>
       </c>
@@ -25826,11 +26255,14 @@
       <c r="G172" s="29">
         <v>62</v>
       </c>
-      <c r="H172" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H172" s="8">
+        <v>0</v>
+      </c>
+      <c r="I172" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>286</v>
       </c>
@@ -25852,11 +26284,14 @@
       <c r="G173" s="29">
         <v>62</v>
       </c>
-      <c r="H173" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H173" s="29">
+        <v>0</v>
+      </c>
+      <c r="I173" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>288</v>
       </c>
@@ -25878,11 +26313,14 @@
       <c r="G174" s="33">
         <v>123</v>
       </c>
-      <c r="H174" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H174" s="8">
+        <v>0</v>
+      </c>
+      <c r="I174" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>290</v>
       </c>
@@ -25904,11 +26342,14 @@
       <c r="G175" s="29">
         <v>62</v>
       </c>
-      <c r="H175" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H175" s="29">
+        <v>0</v>
+      </c>
+      <c r="I175" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>292</v>
       </c>
@@ -25930,11 +26371,14 @@
       <c r="G176" s="29">
         <v>62</v>
       </c>
-      <c r="H176" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H176" s="8">
+        <v>0</v>
+      </c>
+      <c r="I176" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>294</v>
       </c>
@@ -25956,11 +26400,14 @@
       <c r="G177" s="33">
         <v>123</v>
       </c>
-      <c r="H177" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H177" s="29">
+        <v>0</v>
+      </c>
+      <c r="I177" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>296</v>
       </c>
@@ -25982,11 +26429,14 @@
       <c r="G178" s="29">
         <v>62</v>
       </c>
-      <c r="H178" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H178" s="8">
+        <v>0</v>
+      </c>
+      <c r="I178" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>298</v>
       </c>
@@ -26008,11 +26458,14 @@
       <c r="G179" s="29">
         <v>62</v>
       </c>
-      <c r="H179" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H179" s="29">
+        <v>0</v>
+      </c>
+      <c r="I179" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>300</v>
       </c>
@@ -26034,11 +26487,14 @@
       <c r="G180" s="33">
         <v>123</v>
       </c>
-      <c r="H180" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H180" s="8">
+        <v>0</v>
+      </c>
+      <c r="I180" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>302</v>
       </c>
@@ -26060,11 +26516,14 @@
       <c r="G181" s="29">
         <v>62</v>
       </c>
-      <c r="H181" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H181" s="29">
+        <v>0</v>
+      </c>
+      <c r="I181" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>304</v>
       </c>
@@ -26086,11 +26545,14 @@
       <c r="G182" s="29">
         <v>62</v>
       </c>
-      <c r="H182" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H182" s="8">
+        <v>0</v>
+      </c>
+      <c r="I182" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>306</v>
       </c>
@@ -26112,11 +26574,14 @@
       <c r="G183" s="33">
         <v>123</v>
       </c>
-      <c r="H183" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H183" s="29">
+        <v>0</v>
+      </c>
+      <c r="I183" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>308</v>
       </c>
@@ -26138,11 +26603,14 @@
       <c r="G184" s="29">
         <v>62</v>
       </c>
-      <c r="H184" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H184" s="8">
+        <v>0</v>
+      </c>
+      <c r="I184" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>310</v>
       </c>
@@ -26164,11 +26632,14 @@
       <c r="G185" s="29">
         <v>62</v>
       </c>
-      <c r="H185" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H185" s="29">
+        <v>0</v>
+      </c>
+      <c r="I185" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>312</v>
       </c>
@@ -26190,11 +26661,14 @@
       <c r="G186" s="33">
         <v>123</v>
       </c>
-      <c r="H186" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H186" s="8">
+        <v>0</v>
+      </c>
+      <c r="I186" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>314</v>
       </c>
@@ -26216,11 +26690,14 @@
       <c r="G187" s="29">
         <v>62</v>
       </c>
-      <c r="H187" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H187" s="29">
+        <v>0</v>
+      </c>
+      <c r="I187" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>316</v>
       </c>
@@ -26242,11 +26719,14 @@
       <c r="G188" s="29">
         <v>62</v>
       </c>
-      <c r="H188" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H188" s="8">
+        <v>0</v>
+      </c>
+      <c r="I188" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>318</v>
       </c>
@@ -26268,11 +26748,14 @@
       <c r="G189" s="33">
         <v>123</v>
       </c>
-      <c r="H189" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H189" s="29">
+        <v>0</v>
+      </c>
+      <c r="I189" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>320</v>
       </c>
@@ -26294,11 +26777,14 @@
       <c r="G190" s="29">
         <v>62</v>
       </c>
-      <c r="H190" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H190" s="8">
+        <v>0</v>
+      </c>
+      <c r="I190" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>322</v>
       </c>
@@ -26320,11 +26806,14 @@
       <c r="G191" s="29">
         <v>62</v>
       </c>
-      <c r="H191" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H191" s="29">
+        <v>0</v>
+      </c>
+      <c r="I191" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>324</v>
       </c>
@@ -26346,11 +26835,14 @@
       <c r="G192" s="33">
         <v>123</v>
       </c>
-      <c r="H192" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H192" s="8">
+        <v>0</v>
+      </c>
+      <c r="I192" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>326</v>
       </c>
@@ -26372,11 +26864,14 @@
       <c r="G193" s="29">
         <v>62</v>
       </c>
-      <c r="H193" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H193" s="29">
+        <v>0</v>
+      </c>
+      <c r="I193" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>328</v>
       </c>
@@ -26398,11 +26893,14 @@
       <c r="G194" s="29">
         <v>62</v>
       </c>
-      <c r="H194" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H194" s="8">
+        <v>0</v>
+      </c>
+      <c r="I194" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>330</v>
       </c>
@@ -26424,11 +26922,14 @@
       <c r="G195" s="33">
         <v>123</v>
       </c>
-      <c r="H195" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H195" s="29">
+        <v>0</v>
+      </c>
+      <c r="I195" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>332</v>
       </c>
@@ -26450,11 +26951,14 @@
       <c r="G196" s="29">
         <v>62</v>
       </c>
-      <c r="H196" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H196" s="8">
+        <v>0</v>
+      </c>
+      <c r="I196" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>334</v>
       </c>
@@ -26476,11 +26980,14 @@
       <c r="G197" s="29">
         <v>62</v>
       </c>
-      <c r="H197" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H197" s="29">
+        <v>0</v>
+      </c>
+      <c r="I197" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>336</v>
       </c>
@@ -26502,11 +27009,14 @@
       <c r="G198" s="33">
         <v>123</v>
       </c>
-      <c r="H198" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H198" s="8">
+        <v>0</v>
+      </c>
+      <c r="I198" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>338</v>
       </c>
@@ -26528,11 +27038,14 @@
       <c r="G199" s="29">
         <v>62</v>
       </c>
-      <c r="H199" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H199" s="29">
+        <v>0</v>
+      </c>
+      <c r="I199" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>340</v>
       </c>
@@ -26554,11 +27067,14 @@
       <c r="G200" s="29">
         <v>62</v>
       </c>
-      <c r="H200" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H200" s="8">
+        <v>0</v>
+      </c>
+      <c r="I200" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>342</v>
       </c>
@@ -26580,33 +27096,39 @@
       <c r="G201" s="33">
         <v>123</v>
       </c>
-      <c r="H201" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="65" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B202" s="66" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C202" s="66">
+      <c r="H201" s="29">
+        <v>0</v>
+      </c>
+      <c r="I201" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="63" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B202" s="64" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C202" s="64">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D202" s="66">
+      <c r="D202" s="64">
         <v>0.2</v>
       </c>
-      <c r="E202" s="67">
+      <c r="E202" s="65">
         <v>0.89</v>
       </c>
-      <c r="F202" s="67">
+      <c r="F202" s="65">
         <v>0.2</v>
       </c>
-      <c r="G202" s="66">
-        <v>0</v>
-      </c>
-      <c r="H202" s="66">
+      <c r="G202" s="64">
+        <v>0</v>
+      </c>
+      <c r="H202" s="8">
+        <v>0</v>
+      </c>
+      <c r="I202" s="64">
         <v>60</v>
       </c>
     </row>
